--- a/medicine/Enfance/Marie_Lu/Marie_Lu.xlsx
+++ b/medicine/Enfance/Marie_Lu/Marie_Lu.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Marie Lu, née Xiwei Lu, le 11 juillet 1984 à Wuxi en Chine, est une romancière américaine pour  jeunes lecteurs. Elle est notamment connue pour le succès de sa série Legend[1] une dystopie qui se passe dans un monde dominé par les militaires.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Marie Lu, née Xiwei Lu, le 11 juillet 1984 à Wuxi en Chine, est une romancière américaine pour  jeunes lecteurs. Elle est notamment connue pour le succès de sa série Legend une dystopie qui se passe dans un monde dominé par les militaires.
 </t>
         </is>
       </c>
@@ -513,13 +525,15 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Vie personnelle
-Marie Lu est née en 1984 à Wuxi dans la province de Jiangsu, en Chine. Sa famille déménage ensuite à Beijing[2]. En 1989, alors qu'elle a 5 ans, ses parents décident de quitter la Chine durant les manifestations de la place Tian'anmen et d'aller vivre aux États-Unis, au Texas.
+          <t>Vie personnelle</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Marie Lu est née en 1984 à Wuxi dans la province de Jiangsu, en Chine. Sa famille déménage ensuite à Beijing. En 1989, alors qu'elle a 5 ans, ses parents décident de quitter la Chine durant les manifestations de la place Tian'anmen et d'aller vivre aux États-Unis, au Texas.
 Marie Lu a étudié à l'Université de Californie du Sud et a pu effectuer un stage au sein de Disney Interactive Studios, une filiale de Disney spécialisée dans le jeu vidéo.
-Elle vit aujourd'hui à Los Angeles, en Californie, avec son mari, son fils et ses chiens[3].
-Vie professionnelle
-Marie Lu a écrit plusieurs dystopies dont les séries Legend, Young Elites et Warcross. Elle est également l'autrice du roman Batman : Nightwalker.
-Avant sa carrière de romancière, Marie Lu était directrice artistique d'un studio de jeux vidéos[4].
+Elle vit aujourd'hui à Los Angeles, en Californie, avec son mari, son fils et ses chiens.
 </t>
         </is>
       </c>
@@ -545,32 +559,245 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Vie professionnelle</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Marie Lu a écrit plusieurs dystopies dont les séries Legend, Young Elites et Warcross. Elle est également l'autrice du roman Batman : Nightwalker.
+Avant sa carrière de romancière, Marie Lu était directrice artistique d'un studio de jeux vidéos.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Marie_Lu</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Marie_Lu</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Série Legend
-Legend, Castelmore, 2012 ((en) Legend, 2012)
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Série Legend</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Legend, Castelmore, 2012 ((en) Legend, 2012)
 Prodigy, Castelmore, 2013 ((en) Prodigy, 2013)
 Champion, Castelmore, 2014 ((en) Champion, 2013)
 (en) Rebel, 2019
-(en) Life Before Legend, 2013, recueil de nouvelles
-Série Young Elites
-Young Elites, Castelmore, 2015 ((en) The Young Elites, 2014)
+(en) Life Before Legend, 2013, recueil de nouvelles</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Marie_Lu</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Marie_Lu</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Série Young Elites</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Young Elites, Castelmore, 2015 ((en) The Young Elites, 2014)
 La Confrérie de la rose, Castelmore, 2016 ((en) The Rose Society, 2015)
-L'Étoile de minuit, Castelmore, 2017 ((en) The Midnight Star, 2016)
-Série Animal Tatoo
-Chaque volume de cette série est écrit par un écrivain différent. Les auteurs des autres volumes sont : Brandon Mull (tome 1), Maggie Stiefvater (tome 2), Garth Nix et Sean Williams (tome 3), Shannon Hale (tome 4), Tui Sutherland (tome 5) et Eliot Schrefer (tome 6).
- L'Arbre éternel, Bayard, 2016 ((en) The Evertree, 2015)
-Série Warcross
-Warcross, Pocket Jeunesse, 2018 ((en) Warcross, 2017)
-La Revanche, Pocket Jeunesse, 2019 ((en) Wildcard, 2018)
-Série Skyhunter
-Skyhunter : L'Arme secrète, De Saxus, 2023 ((en) Skyhunter, 2020), trad. Jean-Baptiste Bernet, 410 p.  (ISBN 978-2-37876-157-8)
-Steelstriker : L'Ultime Rebellion, De Saxus, 2023 ((en) Steelstriker, 2021), trad. Jean-Baptiste Bernet, 432 p.  (ISBN 978-2-37876-236-0)
-Romans indépendants
-Batman : Nightwalker, Bayard Jeunesse, 2018 ((en) Batman: Nightwalker, 2018)</t>
+L'Étoile de minuit, Castelmore, 2017 ((en) The Midnight Star, 2016)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Marie_Lu</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Marie_Lu</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Série Animal Tatoo</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Chaque volume de cette série est écrit par un écrivain différent. Les auteurs des autres volumes sont : Brandon Mull (tome 1), Maggie Stiefvater (tome 2), Garth Nix et Sean Williams (tome 3), Shannon Hale (tome 4), Tui Sutherland (tome 5) et Eliot Schrefer (tome 6).
+ L'Arbre éternel, Bayard, 2016 ((en) The Evertree, 2015)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Marie_Lu</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Marie_Lu</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Série Warcross</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Warcross, Pocket Jeunesse, 2018 ((en) Warcross, 2017)
+La Revanche, Pocket Jeunesse, 2019 ((en) Wildcard, 2018)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Marie_Lu</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Marie_Lu</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Série Skyhunter</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Skyhunter : L'Arme secrète, De Saxus, 2023 ((en) Skyhunter, 2020), trad. Jean-Baptiste Bernet, 410 p.  (ISBN 978-2-37876-157-8)
+Steelstriker : L'Ultime Rebellion, De Saxus, 2023 ((en) Steelstriker, 2021), trad. Jean-Baptiste Bernet, 432 p.  (ISBN 978-2-37876-236-0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Marie_Lu</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Marie_Lu</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Romans indépendants</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Batman : Nightwalker, Bayard Jeunesse, 2018 ((en) Batman: Nightwalker, 2018)</t>
         </is>
       </c>
     </row>
